--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -509,10 +509,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -668,8 +668,12 @@
       <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>ок</t>
+  </si>
+  <si>
+    <t>д5</t>
+  </si>
+  <si>
+    <t>д6</t>
   </si>
 </sst>
 </file>
@@ -512,7 +518,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -560,8 +566,12 @@
       <c r="F3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
@@ -674,8 +684,12 @@
       <c r="F11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -515,10 +515,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -759,7 +759,9 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -518,7 +518,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -840,7 +840,9 @@
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -515,10 +515,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -649,7 +649,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -518,7 +518,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -644,11 +644,21 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>34</v>
       </c>
@@ -758,9 +768,15 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="H16" s="2" t="s">
         <v>34</v>
       </c>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -518,7 +518,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -634,7 +634,9 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -515,10 +515,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -863,11 +863,17 @@
       <c r="C22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -994,10 +1000,18 @@
       <c r="D31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -866,8 +866,12 @@
       <c r="D22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G22" s="2" t="s">
         <v>34</v>
       </c>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -515,10 +515,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -846,8 +846,12 @@
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -518,7 +518,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -852,10 +852,18 @@
       <c r="D21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -515,10 +515,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -665,7 +665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -678,8 +678,11 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="I10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -754,14 +757,24 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -783,21 +796,36 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -811,7 +839,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -825,7 +853,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -839,7 +867,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -865,7 +893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -891,7 +919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -905,21 +933,36 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -933,7 +976,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -947,7 +990,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -961,7 +1004,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -975,7 +1018,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -989,7 +1032,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1003,7 +1046,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1029,7 +1072,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -518,7 +518,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17:I17"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -750,7 +750,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -793,6 +793,9 @@
         <v>34</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -853,7 +856,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -867,7 +870,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -892,8 +895,11 @@
       <c r="H21" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="I21" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -515,10 +515,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -588,7 +588,9 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -715,9 +717,15 @@
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -781,8 +789,12 @@
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>34</v>
       </c>
@@ -842,7 +854,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -863,12 +875,27 @@
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1031,7 +1058,9 @@
       <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -518,7 +518,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -739,10 +739,18 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -515,10 +515,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -959,6 +959,9 @@
       <c r="H22" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="I22" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1136,11 +1139,17 @@
       <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -515,10 +515,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1085,10 +1085,18 @@
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -158,6 +158,21 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -208,6 +223,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -515,10 +536,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30:F30"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -710,7 +731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -730,15 +751,19 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
@@ -751,8 +776,11 @@
       <c r="H13" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -855,12 +883,24 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1174,5 +1214,6 @@
     <mergeCell ref="C1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -221,14 +221,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -539,7 +539,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -550,29 +550,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
@@ -602,7 +602,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -618,21 +618,36 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -886,7 +901,7 @@
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -895,7 +910,7 @@
       <c r="F18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H18" s="2" t="s">

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -539,7 +539,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -924,12 +924,27 @@
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -539,7 +539,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19:I19"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -654,14 +654,27 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1090,33 +1103,58 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -536,10 +536,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1096,12 +1096,22 @@
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -536,10 +536,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -715,6 +715,10 @@
       <c r="H9" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="37">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -536,10 +536,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1272,15 +1272,21 @@
       <c r="C33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>д3</t>
-  </si>
-  <si>
-    <t>ок</t>
   </si>
   <si>
     <t>д5</t>
@@ -210,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -227,6 +224,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -536,10 +534,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -550,29 +548,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
@@ -588,10 +586,10 @@
         <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
@@ -609,14 +607,21 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
+      <c r="C5" s="2">
+        <v>5</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
+      <c r="K5">
+        <f>SUM(C5:I5)</f>
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -625,26 +630,33 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>34</v>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" ref="K6:K33" si="0">SUM(C6:I6)</f>
+        <v>35</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -654,24 +666,31 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>34</v>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -685,10 +704,17 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
+      <c r="G8" s="2">
+        <v>5</v>
       </c>
       <c r="H8" s="2"/>
+      <c r="K8" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -697,28 +723,35 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>34</v>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
       </c>
       <c r="J9" s="2"/>
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -733,8 +766,15 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>34</v>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -744,23 +784,30 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>34</v>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -770,18 +817,25 @@
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
+      <c r="K12" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -790,26 +844,33 @@
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>34</v>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -825,6 +886,13 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
+      <c r="K14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -833,21 +901,28 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>34</v>
+      <c r="C15" s="2">
+        <v>5</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>34</v>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -857,200 +932,249 @@
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" s="5">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>5</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1063,114 +1187,149 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2">
+        <v>5</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>34</v>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2">
+        <v>5</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>34</v>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1183,72 +1342,100 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="K28" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>34</v>
+      <c r="C29" s="2">
+        <v>5</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="K29" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>34</v>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="K30" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="2">
+        <v>5</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -1261,34 +1448,48 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="K32" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2">
+        <v>5</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1301,6 +1502,30 @@
   <mergeCells count="1">
     <mergeCell ref="C1:W1"/>
   </mergeCells>
+  <conditionalFormatting sqref="K5:K33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M33">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -534,10 +534,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5:M33"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -180,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -203,11 +203,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -227,6 +238,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -533,11 +547,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -760,18 +774,30 @@
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
       <c r="I10" s="2">
         <v>5</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="M10">
         <v>3</v>
@@ -1166,9 +1192,12 @@
       <c r="I22" s="2">
         <v>5</v>
       </c>
+      <c r="J22" s="9">
+        <v>5</v>
+      </c>
       <c r="K22" s="6">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>SUM(C22:J22)</f>
+        <v>40</v>
       </c>
       <c r="M22">
         <v>5</v>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -236,11 +236,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -548,10 +548,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -562,29 +562,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
@@ -795,9 +795,12 @@
       <c r="I10" s="2">
         <v>5</v>
       </c>
+      <c r="J10" s="7">
+        <v>5</v>
+      </c>
       <c r="K10" s="6">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>SUM(C10:J10)</f>
+        <v>40</v>
       </c>
       <c r="M10">
         <v>3</v>
@@ -1192,7 +1195,7 @@
       <c r="I22" s="2">
         <v>5</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="7">
         <v>5</v>
       </c>
       <c r="K22" s="6">
@@ -1212,13 +1215,20 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
       <c r="K23" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M23">
         <v>2</v>
@@ -1471,15 +1481,25 @@
       <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2">
+        <v>5</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="K32" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M32">
         <v>2</v>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -180,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -214,11 +214,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -241,6 +250,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -548,7 +560,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
@@ -831,9 +843,15 @@
       <c r="H11" s="2">
         <v>5</v>
       </c>
+      <c r="I11" s="10">
+        <v>5</v>
+      </c>
+      <c r="J11" s="10">
+        <v>5</v>
+      </c>
       <c r="K11" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>SUM(C11:J11)</f>
+        <v>40</v>
       </c>
       <c r="M11">
         <v>5</v>
@@ -982,9 +1000,12 @@
       <c r="I16" s="2">
         <v>5</v>
       </c>
+      <c r="J16" s="7">
+        <v>5</v>
+      </c>
       <c r="K16" s="6">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>SUM(C16:J16)</f>
+        <v>40</v>
       </c>
       <c r="M16">
         <v>5</v>
@@ -1219,7 +1240,9 @@
         <v>5</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
       <c r="H23" s="2">
         <v>5</v>
       </c>
@@ -1228,7 +1251,7 @@
       </c>
       <c r="K23" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M23">
         <v>2</v>
@@ -1530,9 +1553,12 @@
       <c r="H33" s="2">
         <v>5</v>
       </c>
+      <c r="I33" s="7">
+        <v>5</v>
+      </c>
       <c r="K33" s="6">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M33">
         <v>5</v>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>д6</t>
+  </si>
+  <si>
+    <t>д7</t>
+  </si>
+  <si>
+    <t>д8</t>
+  </si>
+  <si>
+    <t>д9</t>
   </si>
 </sst>
 </file>
@@ -248,11 +257,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -560,10 +569,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -574,31 +583,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-    </row>
-    <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+    </row>
+    <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -617,8 +627,17 @@
       <c r="H3" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -641,13 +660,6 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="K5">
-        <f>SUM(C5:I5)</f>
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -677,13 +689,7 @@
       <c r="I6" s="2">
         <v>5</v>
       </c>
-      <c r="K6" s="6">
-        <f t="shared" ref="K6:K33" si="0">SUM(C6:I6)</f>
-        <v>35</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -711,13 +717,7 @@
       <c r="I7" s="2">
         <v>5</v>
       </c>
-      <c r="K7" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -734,13 +734,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="K8" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -771,13 +765,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="6">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -810,13 +798,7 @@
       <c r="J10" s="7">
         <v>5</v>
       </c>
-      <c r="K10" s="6">
-        <f>SUM(C10:J10)</f>
-        <v>40</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -843,17 +825,13 @@
       <c r="H11" s="2">
         <v>5</v>
       </c>
-      <c r="I11" s="10">
-        <v>5</v>
-      </c>
-      <c r="J11" s="10">
-        <v>5</v>
-      </c>
-      <c r="K11" s="6">
-        <f>SUM(C11:J11)</f>
-        <v>40</v>
-      </c>
-      <c r="M11">
+      <c r="I11" s="8">
+        <v>5</v>
+      </c>
+      <c r="J11" s="8">
+        <v>5</v>
+      </c>
+      <c r="K11" s="8">
         <v>5</v>
       </c>
     </row>
@@ -876,13 +854,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="K12" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="M12">
-        <v>4</v>
-      </c>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -912,13 +884,7 @@
       <c r="I13" s="2">
         <v>5</v>
       </c>
-      <c r="K13" s="6">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -927,19 +893,31 @@
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="K14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>3</v>
-      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="8">
+        <v>5</v>
+      </c>
+      <c r="J14" s="8">
+        <v>5</v>
+      </c>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -964,13 +942,7 @@
       <c r="H15" s="2">
         <v>5</v>
       </c>
-      <c r="K15" s="6">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="M15">
-        <v>5</v>
-      </c>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1003,15 +975,9 @@
       <c r="J16" s="7">
         <v>5</v>
       </c>
-      <c r="K16" s="6">
-        <f>SUM(C16:J16)</f>
-        <v>40</v>
-      </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1039,15 +1005,9 @@
       <c r="I17" s="2">
         <v>5</v>
       </c>
-      <c r="K17" s="6">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1072,15 +1032,9 @@
       <c r="H18" s="2">
         <v>5</v>
       </c>
-      <c r="K18" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1108,15 +1062,9 @@
       <c r="I19" s="2">
         <v>5</v>
       </c>
-      <c r="K19" s="6">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1144,15 +1092,14 @@
       <c r="I20" s="2">
         <v>5</v>
       </c>
-      <c r="K20" s="6">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="7">
+        <v>5</v>
+      </c>
+      <c r="K20" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1180,15 +1127,9 @@
       <c r="I21" s="2">
         <v>5</v>
       </c>
-      <c r="K21" s="6">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1219,23 +1160,21 @@
       <c r="J22" s="7">
         <v>5</v>
       </c>
-      <c r="K22" s="6">
-        <f>SUM(C22:J22)</f>
-        <v>40</v>
-      </c>
-      <c r="M22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
       <c r="E23" s="2">
         <v>5</v>
       </c>
@@ -1249,15 +1188,9 @@
       <c r="J23">
         <v>5</v>
       </c>
-      <c r="K23" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1285,15 +1218,14 @@
       <c r="I24" s="2">
         <v>5</v>
       </c>
-      <c r="K24" s="6">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="7">
+        <v>5</v>
+      </c>
+      <c r="K24" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1316,15 +1248,9 @@
       <c r="H25" s="2">
         <v>5</v>
       </c>
-      <c r="K25" s="6">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="M25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1352,15 +1278,9 @@
       <c r="I26" s="2">
         <v>5</v>
       </c>
-      <c r="K26" s="6">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1383,15 +1303,9 @@
       <c r="H27" s="2">
         <v>5</v>
       </c>
-      <c r="K27" s="6">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="M27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1404,15 +1318,9 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="K28" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1427,15 +1335,9 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="K29" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1454,17 +1356,15 @@
       <c r="F30" s="2">
         <v>5</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="K30" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="M30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="G30" s="2">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1489,15 +1389,9 @@
       <c r="H31" s="2">
         <v>5</v>
       </c>
-      <c r="K31" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="M31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -1520,15 +1414,9 @@
         <v>5</v>
       </c>
       <c r="H32" s="2"/>
-      <c r="K32" s="6">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -1556,15 +1444,9 @@
       <c r="I33" s="7">
         <v>5</v>
       </c>
-      <c r="K33" s="6">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1577,30 +1459,6 @@
   <mergeCells count="1">
     <mergeCell ref="C1:W1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5:K33">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M33">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>д9</t>
+  </si>
+  <si>
+    <t>Варианты</t>
   </si>
 </sst>
 </file>
@@ -236,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -258,6 +261,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -569,10 +578,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -583,29 +592,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
     </row>
     <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -635,6 +644,9 @@
       </c>
       <c r="K3" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -660,6 +672,9 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
+      <c r="M5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -690,6 +705,9 @@
         <v>5</v>
       </c>
       <c r="K6" s="6"/>
+      <c r="M6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -718,6 +736,9 @@
         <v>5</v>
       </c>
       <c r="K7" s="6"/>
+      <c r="M7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -735,6 +756,9 @@
       </c>
       <c r="H8" s="2"/>
       <c r="K8" s="6"/>
+      <c r="M8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -833,6 +857,9 @@
       </c>
       <c r="K11" s="8">
         <v>5</v>
+      </c>
+      <c r="M11" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -885,6 +912,9 @@
         <v>5</v>
       </c>
       <c r="K13" s="6"/>
+      <c r="M13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -918,6 +948,9 @@
         <v>5</v>
       </c>
       <c r="K14" s="6"/>
+      <c r="M14" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -943,6 +976,9 @@
         <v>5</v>
       </c>
       <c r="K15" s="6"/>
+      <c r="M15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -977,7 +1013,7 @@
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1006,8 +1042,11 @@
         <v>5</v>
       </c>
       <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1033,8 +1072,11 @@
         <v>5</v>
       </c>
       <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1064,7 +1106,7 @@
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1098,8 +1140,11 @@
       <c r="K20" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1128,8 +1173,11 @@
         <v>5</v>
       </c>
       <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1161,8 +1209,11 @@
         <v>5</v>
       </c>
       <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1189,8 +1240,11 @@
         <v>5</v>
       </c>
       <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1224,8 +1278,11 @@
       <c r="K24" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1249,8 +1306,11 @@
         <v>5</v>
       </c>
       <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1279,8 +1339,11 @@
         <v>5</v>
       </c>
       <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1304,8 +1367,11 @@
         <v>5</v>
       </c>
       <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1319,8 +1385,11 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1337,7 +1406,7 @@
       <c r="H29" s="2"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1363,8 +1432,11 @@
         <v>5</v>
       </c>
       <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1391,7 +1463,7 @@
       </c>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -578,10 +578,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -747,14 +747,20 @@
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
         <v>5</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="M8">
         <v>1</v>
@@ -1105,6 +1111,9 @@
         <v>5</v>
       </c>
       <c r="K19" s="6"/>
+      <c r="M19">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -581,7 +581,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -796,6 +796,9 @@
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="6"/>
+      <c r="M9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1373,6 +1376,9 @@
         <v>5</v>
       </c>
       <c r="H27" s="2">
+        <v>5</v>
+      </c>
+      <c r="I27" s="7">
         <v>5</v>
       </c>
       <c r="K27" s="6"/>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -578,10 +578,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -668,10 +668,16 @@
         <v>5</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
       <c r="M5">
         <v>1</v>
       </c>
@@ -1307,7 +1313,9 @@
       <c r="D25" s="2">
         <v>5</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
       <c r="F25" s="2">
         <v>5</v>
       </c>
@@ -1315,6 +1323,12 @@
         <v>5</v>
       </c>
       <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="I25" s="8">
+        <v>5</v>
+      </c>
+      <c r="J25" s="8">
         <v>5</v>
       </c>
       <c r="K25" s="6"/>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -239,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -269,6 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -578,10 +579,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -592,29 +593,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -647,6 +648,18 @@
       </c>
       <c r="M3" s="9" t="s">
         <v>39</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -656,6 +669,22 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
+      <c r="N4">
+        <f>SUM(N5:N34)</f>
+        <v>7</v>
+      </c>
+      <c r="O4" s="11">
+        <f t="shared" ref="O4:Q4" si="0">SUM(O5:O34)</f>
+        <v>11</v>
+      </c>
+      <c r="P4" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q4" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -680,6 +709,22 @@
       </c>
       <c r="M5">
         <v>1</v>
+      </c>
+      <c r="N5">
+        <f>IF($M5=N$3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="11">
+        <f t="shared" ref="O5:Q20" si="1">IF($M5=O$3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -714,6 +759,22 @@
       <c r="M6">
         <v>2</v>
       </c>
+      <c r="N6" s="11">
+        <f t="shared" ref="N6:Q34" si="2">IF($M6=N$3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -745,6 +806,22 @@
       <c r="M7">
         <v>3</v>
       </c>
+      <c r="N7" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -770,6 +847,22 @@
       <c r="K8" s="6"/>
       <c r="M8">
         <v>1</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -805,6 +898,22 @@
       <c r="M9">
         <v>4</v>
       </c>
+      <c r="N9" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -838,6 +947,22 @@
         <v>5</v>
       </c>
       <c r="K10" s="6"/>
+      <c r="N10" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -875,6 +1000,22 @@
       </c>
       <c r="M11" s="10">
         <v>2</v>
+      </c>
+      <c r="N11" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -897,6 +1038,22 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="K12" s="6"/>
+      <c r="N12" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -930,6 +1087,22 @@
       <c r="M13">
         <v>2</v>
       </c>
+      <c r="N13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -966,6 +1139,22 @@
       <c r="M14" s="10">
         <v>2</v>
       </c>
+      <c r="N14" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -994,6 +1183,22 @@
       <c r="M15">
         <v>3</v>
       </c>
+      <c r="N15" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1027,8 +1232,27 @@
         <v>5</v>
       </c>
       <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="10">
+        <v>4</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1060,8 +1284,24 @@
       <c r="M17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1090,8 +1330,24 @@
       <c r="M18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1123,8 +1379,24 @@
       <c r="M19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1161,8 +1433,24 @@
       <c r="M20" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1194,8 +1482,24 @@
       <c r="M21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P21" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1230,8 +1534,24 @@
       <c r="M22" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P22" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1261,8 +1581,24 @@
       <c r="M23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1299,8 +1635,24 @@
       <c r="M24" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N24" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1335,8 +1687,24 @@
       <c r="M25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N25" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O25" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1368,8 +1736,24 @@
       <c r="M26" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O26" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1399,8 +1783,24 @@
       <c r="M27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="N27" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O27" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1417,8 +1817,24 @@
       <c r="M28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="N28" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P28" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1434,8 +1850,24 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="N29" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1464,8 +1896,24 @@
       <c r="M30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="N30" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P30" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1491,8 +1939,24 @@
         <v>5</v>
       </c>
       <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+      <c r="N31" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -1516,8 +1980,24 @@
       </c>
       <c r="H32" s="2"/>
       <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="N32" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -1546,14 +2026,49 @@
         <v>5</v>
       </c>
       <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
+      <c r="N34" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -582,7 +582,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -679,7 +679,7 @@
       </c>
       <c r="P4" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="11">
         <f t="shared" si="0"/>
@@ -947,6 +947,9 @@
         <v>5</v>
       </c>
       <c r="K10" s="6"/>
+      <c r="M10" s="10">
+        <v>3</v>
+      </c>
       <c r="N10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -957,7 +960,7 @@
       </c>
       <c r="P10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="11">
         <f t="shared" si="1"/>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -582,7 +582,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -893,8 +893,12 @@
       <c r="I9" s="2">
         <v>5</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="6"/>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="7">
+        <v>5</v>
+      </c>
       <c r="M9">
         <v>4</v>
       </c>
@@ -1234,7 +1238,9 @@
       <c r="J16" s="7">
         <v>5</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="7">
+        <v>5</v>
+      </c>
       <c r="M16" s="10">
         <v>4</v>
       </c>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -579,10 +579,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -950,7 +950,9 @@
       <c r="J10" s="7">
         <v>5</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="7">
+        <v>5</v>
+      </c>
       <c r="M10" s="10">
         <v>3</v>
       </c>
@@ -2034,6 +2036,9 @@
       <c r="I33" s="7">
         <v>5</v>
       </c>
+      <c r="J33" s="7">
+        <v>5</v>
+      </c>
       <c r="K33" s="6"/>
       <c r="M33">
         <v>4</v>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -579,10 +579,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1092,12 @@
       <c r="I13" s="2">
         <v>5</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="J13" s="10">
+        <v>5</v>
+      </c>
+      <c r="K13" s="10">
+        <v>5</v>
+      </c>
       <c r="M13">
         <v>2</v>
       </c>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -582,7 +582,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1296,12 @@
       <c r="I17" s="2">
         <v>5</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="J17" s="10">
+        <v>5</v>
+      </c>
+      <c r="K17" s="10">
+        <v>5</v>
+      </c>
       <c r="M17">
         <v>2</v>
       </c>
@@ -1391,7 +1396,12 @@
       <c r="I19" s="2">
         <v>5</v>
       </c>
-      <c r="K19" s="6"/>
+      <c r="J19" s="7">
+        <v>5</v>
+      </c>
+      <c r="K19" s="7">
+        <v>5</v>
+      </c>
       <c r="M19">
         <v>2</v>
       </c>
@@ -1590,6 +1600,9 @@
       <c r="H23" s="2">
         <v>5</v>
       </c>
+      <c r="I23" s="8">
+        <v>5</v>
+      </c>
       <c r="J23">
         <v>5</v>
       </c>
@@ -1699,7 +1712,9 @@
       <c r="J25" s="8">
         <v>5</v>
       </c>
-      <c r="K25" s="6"/>
+      <c r="K25" s="8">
+        <v>5</v>
+      </c>
       <c r="M25">
         <v>1</v>
       </c>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -579,10 +579,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -679,7 +679,7 @@
       </c>
       <c r="P4" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="11">
         <f t="shared" si="0"/>
@@ -1047,6 +1047,9 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="K12" s="6"/>
+      <c r="M12">
+        <v>3</v>
+      </c>
       <c r="N12" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1057,7 +1060,7 @@
       </c>
       <c r="P12" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="11">
         <f t="shared" si="1"/>
@@ -1970,6 +1973,9 @@
         <v>5</v>
       </c>
       <c r="K31" s="6"/>
+      <c r="M31">
+        <v>3</v>
+      </c>
       <c r="N31" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1980,7 +1986,7 @@
       </c>
       <c r="P31" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="11">
         <f t="shared" si="2"/>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -582,7 +582,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -679,7 +679,7 @@
       </c>
       <c r="P4" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q4" s="11">
         <f t="shared" si="0"/>
@@ -2017,6 +2017,9 @@
       </c>
       <c r="H32" s="2"/>
       <c r="K32" s="6"/>
+      <c r="M32">
+        <v>3</v>
+      </c>
       <c r="N32" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2027,7 +2030,7 @@
       </c>
       <c r="P32" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="11">
         <f t="shared" si="2"/>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -572,10 +572,10 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -569,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -637,6 +637,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -662,6 +665,10 @@
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <f>IF(B4=C4,1+A3,"____________")</f>
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -703,6 +710,10 @@
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <f t="shared" ref="A5:A33" si="2">IF(B5=C5,1+A4,"____________")</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -752,6 +763,10 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -799,6 +814,10 @@
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -841,6 +860,10 @@
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -895,6 +918,10 @@
     </row>
     <row r="9" spans="1:18" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -949,6 +976,10 @@
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1003,6 +1034,10 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1043,6 +1078,10 @@
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1097,6 +1136,10 @@
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1149,6 +1192,10 @@
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1193,6 +1240,10 @@
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1247,6 +1298,10 @@
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1301,6 +1356,10 @@
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1347,6 +1406,10 @@
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1401,6 +1464,10 @@
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1455,6 +1522,10 @@
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1504,6 +1575,10 @@
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1556,6 +1631,10 @@
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1606,6 +1685,10 @@
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1660,6 +1743,10 @@
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1714,6 +1801,10 @@
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1763,6 +1854,10 @@
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1810,6 +1905,10 @@
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1844,6 +1943,10 @@
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1877,6 +1980,10 @@
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1923,6 +2030,10 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1969,6 +2080,10 @@
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2013,6 +2128,10 @@
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2063,7 +2182,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="4:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -2087,6 +2210,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:18" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -569,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -587,12 +587,12 @@
     <col min="15" max="18" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
@@ -636,7 +636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -663,7 +663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>IF(B4=C4,1+A3,"____________")</f>
         <v>1</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A33" si="2">IF(B5=C5,1+A4,"____________")</f>
         <v>2</v>
@@ -740,7 +740,9 @@
       <c r="J5" s="2">
         <v>5</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="8">
+        <v>5</v>
+      </c>
       <c r="N5">
         <v>2</v>
       </c>
@@ -761,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -812,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -858,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -916,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -974,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1032,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1076,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1134,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1217,7 +1219,12 @@
       <c r="I14" s="2">
         <v>5</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="J14" s="8">
+        <v>5</v>
+      </c>
+      <c r="L14" s="10">
+        <v>5</v>
+      </c>
       <c r="N14">
         <v>3</v>
       </c>
@@ -1238,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1295,8 +1302,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1354,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -1404,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1462,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1520,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1552,7 +1562,12 @@
       <c r="J20" s="2">
         <v>5</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="K20" s="10">
+        <v>5</v>
+      </c>
+      <c r="L20" s="10">
+        <v>5</v>
+      </c>
       <c r="N20">
         <v>2</v>
       </c>
@@ -1573,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1608,7 +1623,9 @@
       <c r="K21" s="7">
         <v>5</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="10">
+        <v>5</v>
+      </c>
       <c r="N21" s="10">
         <v>2</v>
       </c>
@@ -1629,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1683,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1740,8 +1757,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1799,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1852,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -1903,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1941,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -1978,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -2007,7 +2027,15 @@
       <c r="I29" s="2">
         <v>5</v>
       </c>
-      <c r="L29" s="6"/>
+      <c r="K29" s="8">
+        <v>5</v>
+      </c>
+      <c r="L29" s="8">
+        <v>5</v>
+      </c>
+      <c r="M29" s="8">
+        <v>5</v>
+      </c>
       <c r="N29">
         <v>2</v>
       </c>
@@ -2027,8 +2055,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -2078,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -2126,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="2"/>
         <v>29</v>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -572,10 +572,10 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomRight" activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1666,7 +1666,9 @@
       <c r="F22" s="2">
         <v>5</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
       <c r="H22" s="2">
         <v>5</v>
       </c>
@@ -1679,7 +1681,12 @@
       <c r="K22">
         <v>5</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="10">
+        <v>5</v>
+      </c>
+      <c r="M22" s="10">
+        <v>5</v>
+      </c>
       <c r="N22">
         <v>1</v>
       </c>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -156,11 +156,15 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -178,12 +182,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -233,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -265,6 +275,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -572,10 +591,10 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T22" sqref="T22"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -719,28 +738,28 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2">
-        <v>5</v>
-      </c>
-      <c r="L5" s="8">
+      <c r="D5" s="13">
+        <v>5</v>
+      </c>
+      <c r="E5" s="13">
+        <v>5</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>5</v>
+      </c>
+      <c r="H5" s="13">
+        <v>5</v>
+      </c>
+      <c r="I5" s="13">
+        <v>5</v>
+      </c>
+      <c r="J5" s="13">
+        <v>5</v>
+      </c>
+      <c r="L5" s="14">
         <v>5</v>
       </c>
       <c r="N5">
@@ -774,16 +793,16 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="D6" s="13">
+        <v>5</v>
+      </c>
+      <c r="E6" s="13">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13">
+        <v>5</v>
+      </c>
+      <c r="G6" s="13">
         <v>5</v>
       </c>
       <c r="H6" s="2"/>
@@ -791,6 +810,9 @@
         <v>5</v>
       </c>
       <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="15">
         <v>5</v>
       </c>
       <c r="L6" s="6"/>
@@ -1033,6 +1055,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1054,9 +1079,15 @@
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="N11">
         <v>3</v>
@@ -1206,7 +1237,9 @@
       <c r="D14" s="2">
         <v>5</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
       <c r="F14" s="2">
         <v>5</v>
       </c>
@@ -1220,6 +1253,9 @@
         <v>5</v>
       </c>
       <c r="J14" s="8">
+        <v>5</v>
+      </c>
+      <c r="K14" s="10">
         <v>5</v>
       </c>
       <c r="L14" s="10">
@@ -1529,6 +1565,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1587,6 +1626,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1644,6 +1686,9 @@
       <c r="R21" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2142,8 +2187,18 @@
       <c r="H31" s="2">
         <v>5</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="L31" s="6"/>
+      <c r="I31" s="2">
+        <v>5</v>
+      </c>
+      <c r="J31" s="7">
+        <v>5</v>
+      </c>
+      <c r="K31" s="8">
+        <v>5</v>
+      </c>
+      <c r="L31" s="6">
+        <v>5</v>
+      </c>
       <c r="N31">
         <v>3</v>
       </c>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -182,7 +182,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -282,6 +288,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -591,10 +600,10 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -696,15 +705,28 @@
       <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
       <c r="H4" s="2">
         <v>5</v>
       </c>
       <c r="I4" s="2">
+        <v>5</v>
+      </c>
+      <c r="J4" s="7">
+        <v>5</v>
+      </c>
+      <c r="K4" s="7">
+        <v>5</v>
+      </c>
+      <c r="L4" s="7">
         <v>5</v>
       </c>
       <c r="N4">
@@ -725,6 +747,9 @@
       <c r="R4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -759,6 +784,9 @@
       <c r="J5" s="13">
         <v>5</v>
       </c>
+      <c r="K5" s="16">
+        <v>5</v>
+      </c>
       <c r="L5" s="14">
         <v>5</v>
       </c>
@@ -781,6 +809,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -815,7 +846,9 @@
       <c r="K6" s="15">
         <v>5</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="7">
+        <v>5</v>
+      </c>
       <c r="N6">
         <v>3</v>
       </c>
@@ -835,6 +868,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -850,18 +886,30 @@
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
       <c r="H7" s="2">
         <v>5</v>
       </c>
       <c r="I7" s="2">
         <v>5</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="J7" s="7">
+        <v>5</v>
+      </c>
+      <c r="K7" s="7">
+        <v>5</v>
+      </c>
+      <c r="L7" s="7">
+        <v>5</v>
+      </c>
       <c r="N7">
         <v>1</v>
       </c>
@@ -880,6 +928,9 @@
       <c r="R7" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -939,6 +990,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -996,6 +1050,9 @@
       <c r="R9" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1166,6 +1223,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1280,6 +1340,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1429,7 +1492,12 @@
       <c r="I17" s="2">
         <v>5</v>
       </c>
-      <c r="L17" s="6"/>
+      <c r="K17" s="10">
+        <v>5</v>
+      </c>
+      <c r="L17" s="10">
+        <v>5</v>
+      </c>
       <c r="N17">
         <v>2</v>
       </c>
@@ -1449,6 +1517,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1507,6 +1578,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T18">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1751,6 +1825,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1870,6 +1947,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1944,7 +2024,9 @@
       <c r="F26" s="2">
         <v>5</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2">
+        <v>5</v>
+      </c>
       <c r="H26" s="2">
         <v>5</v>
       </c>
@@ -1952,6 +2034,9 @@
         <v>5</v>
       </c>
       <c r="J26" s="7">
+        <v>5</v>
+      </c>
+      <c r="K26" s="10">
         <v>5</v>
       </c>
       <c r="L26" s="6"/>
@@ -1973,6 +2058,9 @@
       <c r="R26" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="T26">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2140,7 +2228,18 @@
       <c r="I30" s="2">
         <v>5</v>
       </c>
-      <c r="L30" s="6"/>
+      <c r="J30" s="7">
+        <v>5</v>
+      </c>
+      <c r="K30" s="7">
+        <v>5</v>
+      </c>
+      <c r="L30" s="7">
+        <v>5</v>
+      </c>
+      <c r="M30" s="7">
+        <v>5</v>
+      </c>
       <c r="N30">
         <v>3</v>
       </c>
@@ -2160,6 +2259,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -2254,7 +2356,10 @@
       <c r="K32" s="7">
         <v>5</v>
       </c>
-      <c r="L32" s="6"/>
+      <c r="L32" s="7">
+        <v>5</v>
+      </c>
+      <c r="M32" s="8"/>
       <c r="N32">
         <v>4</v>
       </c>
@@ -2273,6 +2378,9 @@
       <c r="R32" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -600,10 +600,10 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
+      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1165,6 +1165,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1281,6 +1284,9 @@
       <c r="R13" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -603,7 +603,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
+      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2326,6 +2326,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T31">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -600,10 +600,10 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
+      <selection pane="bottomRight" activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2122,10 +2122,19 @@
         <v>5</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="H28" s="2">
+        <v>5</v>
+      </c>
+      <c r="I28" s="2">
+        <v>5</v>
+      </c>
+      <c r="J28" s="8">
+        <v>5</v>
+      </c>
       <c r="L28" s="6"/>
       <c r="O28" s="11">
         <f t="shared" si="1"/>
@@ -2142,6 +2151,9 @@
       <c r="R28" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -603,7 +603,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T28" sqref="T28"/>
+      <selection pane="bottomRight" activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2080,13 +2080,33 @@
       <c r="C27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="L27" s="6"/>
+      <c r="D27" s="2">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2">
+        <v>5</v>
+      </c>
+      <c r="J27" s="8">
+        <v>5</v>
+      </c>
+      <c r="K27" s="10">
+        <v>5</v>
+      </c>
+      <c r="L27" s="10">
+        <v>10</v>
+      </c>
       <c r="N27">
         <v>2</v>
       </c>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>Варианты</t>
+  </si>
+  <si>
+    <t>автомат</t>
+  </si>
+  <si>
+    <t>паразит</t>
+  </si>
+  <si>
+    <t>автоматом</t>
   </si>
 </sst>
 </file>
@@ -597,13 +606,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T27" sqref="T27"/>
+      <selection pane="bottomRight" activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -615,12 +624,12 @@
     <col min="15" max="18" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
@@ -664,7 +673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -691,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>IF(B4=C4,1+A3,"____________")</f>
         <v>1</v>
@@ -752,7 +761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A33" si="2">IF(B5=C5,1+A4,"____________")</f>
         <v>2</v>
@@ -813,7 +822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -872,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -933,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -994,7 +1003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1055,7 +1064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1116,7 +1125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1169,7 +1178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1230,7 +1239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1289,7 +1298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1350,7 +1359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1411,7 +1420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1468,8 +1477,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="U16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -1527,7 +1542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1588,7 +1603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1649,7 +1664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1710,7 +1725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1771,7 +1786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1835,7 +1850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1896,7 +1911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1957,7 +1972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2009,8 +2024,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <v>5</v>
+      </c>
+      <c r="U25" t="s">
+        <v>40</v>
+      </c>
+      <c r="V25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -2069,7 +2093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -2126,8 +2150,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T27">
+        <v>4</v>
+      </c>
+      <c r="U27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -2176,7 +2206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -2237,7 +2267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -2301,7 +2331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -2362,7 +2392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="2"/>
         <v>29</v>

--- a/2ИСИП-522_ДисМат_.xlsx
+++ b/2ИСИП-522_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>2ИСИП-522: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>автоматом</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -606,13 +609,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V42" sqref="V42"/>
+      <selection pane="bottomRight" activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2129,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="L27" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2483,6 +2486,31 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
